--- a/Jogos_do_Dia/2023-02-01_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-01_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="G2" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>4.12</v>
       </c>
       <c r="M2" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="N2" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="G3" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -763,10 +763,10 @@
         <v>3.82</v>
       </c>
       <c r="M3" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="N3" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="G4" t="n">
-        <v>4.16</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
-        <v>4.94</v>
+        <v>5.25</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3.61</v>
       </c>
       <c r="M4" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="N4" t="n">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="G5" t="n">
-        <v>5.45</v>
+        <v>6.4</v>
       </c>
       <c r="H5" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
         <v>1.01</v>
@@ -983,10 +983,10 @@
         <v>6.09</v>
       </c>
       <c r="M5" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="N5" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.74</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="G7" t="n">
-        <v>3.95</v>
+        <v>4.35</v>
       </c>
       <c r="H7" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="I7" t="n">
         <v>1.03</v>
@@ -1203,10 +1203,10 @@
         <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="N7" t="n">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="O7" t="n">
         <v>1.27</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.85</v>
+        <v>5.09</v>
       </c>
       <c r="G8" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="H8" t="n">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1313,10 +1313,10 @@
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="N8" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1364,7 +1364,7 @@
         <v>1.55</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE8" t="n">
         <v>1.53</v>
@@ -1376,7 +1376,7 @@
         <v>2.45</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="H9" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="I9" t="n">
         <v>1.05</v>
@@ -1423,10 +1423,10 @@
         <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="N9" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1533,10 +1533,10 @@
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="N10" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="H11" t="n">
-        <v>2.98</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
         <v>1.09</v>
@@ -1643,10 +1643,10 @@
         <v>2.8</v>
       </c>
       <c r="M11" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="N11" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="H12" t="n">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="I12" t="n">
         <v>1.04</v>
@@ -1753,10 +1753,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="N12" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="G13" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.15</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
         <v>1.03</v>
@@ -1863,10 +1863,10 @@
         <v>4.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="N13" t="n">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.46</v>
+        <v>2.23</v>
       </c>
       <c r="G14" t="n">
-        <v>3.56</v>
+        <v>3.95</v>
       </c>
       <c r="H14" t="n">
-        <v>2.73</v>
+        <v>2.88</v>
       </c>
       <c r="I14" t="n">
         <v>1.04</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="I15" t="n">
         <v>1.03</v>
@@ -2083,10 +2083,10 @@
         <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="N15" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="O15" t="n">
         <v>1.31</v>
@@ -2175,10 +2175,10 @@
         <v>1.89</v>
       </c>
       <c r="G16" t="n">
-        <v>3.48</v>
+        <v>3.45</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I16" t="n">
         <v>1.06</v>
@@ -2193,10 +2193,10 @@
         <v>3.1</v>
       </c>
       <c r="M16" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="N16" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.42</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="G17" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="H17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I17" t="n">
         <v>1.02</v>
@@ -2303,10 +2303,10 @@
         <v>7.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="N17" t="n">
-        <v>3.18</v>
+        <v>3.33</v>
       </c>
       <c r="O17" t="n">
         <v>1.17</v>
@@ -2354,7 +2354,7 @@
         <v>42</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AE17" t="n">
         <v>1.22</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="G18" t="n">
-        <v>4.54</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I18" t="n">
         <v>1.02</v>
@@ -2413,10 +2413,10 @@
         <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="N18" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.28</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
-        <v>3.32</v>
+        <v>3.05</v>
       </c>
       <c r="H19" t="n">
-        <v>3.12</v>
+        <v>3.05</v>
       </c>
       <c r="I19" t="n">
         <v>1.06</v>
@@ -2523,10 +2523,10 @@
         <v>3.2</v>
       </c>
       <c r="M19" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="N19" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O19" t="n">
         <v>1.42</v>
@@ -2612,10 +2612,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="G20" t="n">
-        <v>3.26</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
@@ -2633,10 +2633,10 @@
         <v>2.85</v>
       </c>
       <c r="M20" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N20" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="O20" t="n">
         <v>1.47</v>
@@ -2725,10 +2725,10 @@
         <v>2.4</v>
       </c>
       <c r="G21" t="n">
-        <v>3.32</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>1.05</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="H22" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="I22" t="n">
         <v>1.03</v>
@@ -2853,10 +2853,10 @@
         <v>4.33</v>
       </c>
       <c r="M22" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="N22" t="n">
-        <v>2.05</v>
+        <v>2.28</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -2942,10 +2942,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="G23" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
         <v>9</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H24" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="I24" t="n">
         <v>1.02</v>
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="N24" t="n">
-        <v>3.06</v>
+        <v>2.74</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.61</v>
+        <v>1.86</v>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H25" t="n">
-        <v>4.65</v>
+        <v>4.3</v>
       </c>
       <c r="I25" t="n">
         <v>1.07</v>
@@ -3183,10 +3183,10 @@
         <v>3.1</v>
       </c>
       <c r="M25" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="N25" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="O25" t="n">
         <v>1.44</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="G26" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="H26" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I26" t="n">
         <v>1.04</v>
@@ -3293,10 +3293,10 @@
         <v>3.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="N26" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="O26" t="n">
         <v>1.36</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5.45</v>
+        <v>5.2</v>
       </c>
       <c r="G27" t="n">
-        <v>4.14</v>
+        <v>4.25</v>
       </c>
       <c r="H27" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="I27" t="n">
         <v>1.04</v>
@@ -3403,10 +3403,10 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="N27" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="O27" t="n">
         <v>1.33</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H28" t="n">
-        <v>3.66</v>
+        <v>3.85</v>
       </c>
       <c r="I28" t="n">
         <v>1.04</v>
@@ -3516,7 +3516,7 @@
         <v>1.8</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O28" t="n">
         <v>1.35</v>

--- a/Jogos_do_Dia/2023-02-01_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-01_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.96</v>
+        <v>2.11</v>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>4.12</v>
       </c>
       <c r="M2" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="N2" t="n">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H3" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -763,7 +763,7 @@
         <v>3.82</v>
       </c>
       <c r="M3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="N3" t="n">
         <v>1.98</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.62</v>
+        <v>1.24</v>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
-        <v>5.25</v>
+        <v>3.69</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3.61</v>
       </c>
       <c r="M4" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="N4" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
       <c r="G5" t="n">
-        <v>6.4</v>
+        <v>5.57</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="I5" t="n">
         <v>1.01</v>
@@ -983,10 +983,10 @@
         <v>6.09</v>
       </c>
       <c r="M5" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="N5" t="n">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>1.44</v>
       </c>
       <c r="N6" t="n">
-        <v>2.41</v>
+        <v>2.59</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="G7" t="n">
-        <v>4.35</v>
+        <v>4.74</v>
       </c>
       <c r="H7" t="n">
-        <v>1.58</v>
+        <v>1.12</v>
       </c>
       <c r="I7" t="n">
         <v>1.03</v>
@@ -1203,10 +1203,10 @@
         <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="N7" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="O7" t="n">
         <v>1.27</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.09</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.49</v>
+        <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1313,10 +1313,10 @@
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="N8" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.1</v>
+        <v>4.74</v>
       </c>
       <c r="G9" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.79</v>
+        <v>1.15</v>
       </c>
       <c r="I9" t="n">
         <v>1.05</v>
@@ -1423,10 +1423,10 @@
         <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="N9" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>1.39</v>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>2.66</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>2.18</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1533,10 +1533,10 @@
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="N10" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="G11" t="n">
-        <v>3.45</v>
+        <v>2.33</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>1.72</v>
       </c>
       <c r="I11" t="n">
         <v>1.09</v>
@@ -1643,10 +1643,10 @@
         <v>2.8</v>
       </c>
       <c r="M11" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="N11" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="G12" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>7.5</v>
+        <v>3.69</v>
       </c>
       <c r="I12" t="n">
         <v>1.04</v>
@@ -1753,10 +1753,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="N12" t="n">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>2.24</v>
       </c>
       <c r="I13" t="n">
         <v>1.03</v>
@@ -1863,10 +1863,10 @@
         <v>4.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="N13" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.23</v>
+        <v>1.43</v>
       </c>
       <c r="G14" t="n">
-        <v>3.95</v>
+        <v>1.81</v>
       </c>
       <c r="H14" t="n">
-        <v>2.88</v>
+        <v>3.54</v>
       </c>
       <c r="I14" t="n">
         <v>1.04</v>
@@ -1973,10 +1973,10 @@
         <v>3.89</v>
       </c>
       <c r="M14" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="N14" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>4.56</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="I15" t="n">
         <v>1.03</v>
@@ -2083,10 +2083,10 @@
         <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="N15" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="O15" t="n">
         <v>1.31</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.89</v>
+        <v>2.31</v>
       </c>
       <c r="G16" t="n">
-        <v>3.45</v>
+        <v>1.27</v>
       </c>
       <c r="H16" t="n">
-        <v>4.4</v>
+        <v>3.83</v>
       </c>
       <c r="I16" t="n">
         <v>1.06</v>
@@ -2193,10 +2193,10 @@
         <v>3.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="O16" t="n">
         <v>1.42</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.13</v>
+        <v>2.85</v>
       </c>
       <c r="G17" t="n">
-        <v>9</v>
+        <v>1.27</v>
       </c>
       <c r="H17" t="n">
-        <v>19</v>
+        <v>2.75</v>
       </c>
       <c r="I17" t="n">
         <v>1.02</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6.2</v>
+        <v>5.55</v>
       </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="I18" t="n">
         <v>1.02</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.26</v>
+        <v>1.28</v>
       </c>
       <c r="G19" t="n">
-        <v>3.05</v>
+        <v>2.01</v>
       </c>
       <c r="H19" t="n">
-        <v>3.05</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I19" t="n">
         <v>1.06</v>
@@ -2523,10 +2523,10 @@
         <v>3.2</v>
       </c>
       <c r="M19" t="n">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="N19" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="O19" t="n">
         <v>1.42</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1.26</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>4.12</v>
       </c>
       <c r="I20" t="n">
         <v>1.08</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I21" t="n">
         <v>1.05</v>
@@ -2743,10 +2743,10 @@
         <v>3.25</v>
       </c>
       <c r="M21" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O21" t="n">
         <v>1.42</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="G22" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H22" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
         <v>1.03</v>
@@ -2853,10 +2853,10 @@
         <v>4.33</v>
       </c>
       <c r="M22" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="N22" t="n">
-        <v>2.28</v>
+        <v>2.05</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I23" t="n">
         <v>1.02</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="G24" t="n">
         <v>5.8</v>
       </c>
       <c r="H24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="I24" t="n">
         <v>1.02</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G25" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H25" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
         <v>1.07</v>
@@ -3183,10 +3183,10 @@
         <v>3.1</v>
       </c>
       <c r="M25" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="N25" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O25" t="n">
         <v>1.44</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="G26" t="n">
         <v>4.1</v>
       </c>
       <c r="H26" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I26" t="n">
         <v>1.04</v>
@@ -3293,10 +3293,10 @@
         <v>3.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="N26" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
         <v>1.36</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="G27" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="H27" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="I27" t="n">
         <v>1.04</v>
@@ -3403,10 +3403,10 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="N27" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="O27" t="n">
         <v>1.33</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="G28" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H28" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
         <v>1.04</v>
@@ -3513,10 +3513,10 @@
         <v>3.6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N28" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
         <v>1.35</v>
